--- a/MainTop/17.07.2025 Таня Озон новые поставка на 16 городов/поставка.xlsx
+++ b/MainTop/17.07.2025 Таня Озон новые поставка на 16 городов/поставка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\17.07.2025 Таня Озон новые поставка на 16 городов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62003E03-EC05-4735-A2EA-C2B6FC879CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14977339-C693-47A4-90AE-4C34A82EEAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MainTop/17.07.2025 Таня Озон новые поставка на 16 городов/поставка.xlsx
+++ b/MainTop/17.07.2025 Таня Озон новые поставка на 16 городов/поставка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\17.07.2025 Таня Озон новые поставка на 16 городов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14977339-C693-47A4-90AE-4C34A82EEAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A954735-0280-403E-A484-EE021FE4F79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Термонаклейка Скелет череп байкер огонь</t>
   </si>
@@ -96,12 +96,6 @@
     <t>Термонаклейка Сигма мем американский психопат</t>
   </si>
   <si>
-    <t>Артикул</t>
-  </si>
-  <si>
-    <t>Num_Copies</t>
-  </si>
-  <si>
     <t>Термонаклейка Шредер и Кренг из Черепашек-ниндзя</t>
   </si>
   <si>
@@ -229,13 +223,22 @@
   </si>
   <si>
     <t>Термонаклейка Уточка с полотенцем</t>
+  </si>
+  <si>
+    <t>артикул</t>
+  </si>
+  <si>
+    <t>имя (необязательно)</t>
+  </si>
+  <si>
+    <t>количество</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +252,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -333,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -343,6 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -623,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,539 +643,542 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>1</v>
       </c>
     </row>
